--- a/data/male_conditioning/treatment_2/block_1/rawdata_m1-4_t2b1.xlsx
+++ b/data/male_conditioning/treatment_2/block_1/rawdata_m1-4_t2b1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/male_conditioning/treatment_2/block_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CEE2D6-C598-B048-8BE4-7BB3F2CE1583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9D79C-44F1-D146-ADDB-B210D4B693AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A982E00B-DFDF-5C41-BB53-5D2A21EFDBA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A982E00B-DFDF-5C41-BB53-5D2A21EFDBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>plate</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>1:4 Unconditioned</t>
+  </si>
+  <si>
+    <t>observation</t>
   </si>
 </sst>
 </file>
@@ -396,54 +399,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696FEF38-AC4C-3B47-99F6-A3C2790D9E83}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C56" sqref="A56:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="164" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -451,76 +464,97 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -528,488 +562,637 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <v>0</v>
       </c>
     </row>
